--- a/natmiOut/OldD2/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>C1qa</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.4084002248793</v>
+        <v>108.909168</v>
       </c>
       <c r="H2">
-        <v>81.4084002248793</v>
+        <v>326.727504</v>
       </c>
       <c r="I2">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="J2">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.16528824799189</v>
+        <v>1.352028</v>
       </c>
       <c r="N2">
-        <v>1.16528824799189</v>
+        <v>2.704056</v>
       </c>
       <c r="O2">
-        <v>0.04488379200605574</v>
+        <v>0.04713951580538031</v>
       </c>
       <c r="P2">
-        <v>0.04488379200605574</v>
+        <v>0.04081250644379757</v>
       </c>
       <c r="Q2">
-        <v>94.86425206987218</v>
+        <v>147.248244592704</v>
       </c>
       <c r="R2">
-        <v>94.86425206987218</v>
+        <v>883.489467556224</v>
       </c>
       <c r="S2">
-        <v>0.01402613165194639</v>
+        <v>0.01731627417452297</v>
       </c>
       <c r="T2">
-        <v>0.01402613165194639</v>
+        <v>0.0149921045911469</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.4084002248793</v>
+        <v>108.909168</v>
       </c>
       <c r="H3">
-        <v>81.4084002248793</v>
+        <v>326.727504</v>
       </c>
       <c r="I3">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="J3">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.40698891189478</v>
+        <v>3.780960333333333</v>
       </c>
       <c r="N3">
-        <v>3.40698891189478</v>
+        <v>11.342881</v>
       </c>
       <c r="O3">
-        <v>0.1312281162638892</v>
+        <v>0.1318261451631791</v>
       </c>
       <c r="P3">
-        <v>0.1312281162638892</v>
+        <v>0.1711988967328077</v>
       </c>
       <c r="Q3">
-        <v>277.3575169012563</v>
+        <v>411.781244144336</v>
       </c>
       <c r="R3">
-        <v>277.3575169012563</v>
+        <v>3706.031197299024</v>
       </c>
       <c r="S3">
-        <v>0.0410086303515955</v>
+        <v>0.04842514043717715</v>
       </c>
       <c r="T3">
-        <v>0.0410086303515955</v>
+        <v>0.06288836411558522</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.4084002248793</v>
+        <v>108.909168</v>
       </c>
       <c r="H4">
-        <v>81.4084002248793</v>
+        <v>326.727504</v>
       </c>
       <c r="I4">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="J4">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.629223050062849</v>
+        <v>0.8490023333333334</v>
       </c>
       <c r="N4">
-        <v>0.629223050062849</v>
+        <v>2.547007</v>
       </c>
       <c r="O4">
-        <v>0.02423599186991325</v>
+        <v>0.0296011317154463</v>
       </c>
       <c r="P4">
-        <v>0.02423599186991325</v>
+        <v>0.03844215489616248</v>
       </c>
       <c r="Q4">
-        <v>51.22404189023568</v>
+        <v>92.46413775339201</v>
       </c>
       <c r="R4">
-        <v>51.22404189023568</v>
+        <v>832.1772397805281</v>
       </c>
       <c r="S4">
-        <v>0.007573718651869728</v>
+        <v>0.010873707629435</v>
       </c>
       <c r="T4">
-        <v>0.007573718651869728</v>
+        <v>0.01412137741910053</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.4084002248793</v>
+        <v>108.909168</v>
       </c>
       <c r="H5">
-        <v>81.4084002248793</v>
+        <v>326.727504</v>
       </c>
       <c r="I5">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="J5">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.243744766943442</v>
+        <v>0.3081146666666667</v>
       </c>
       <c r="N5">
-        <v>0.243744766943442</v>
+        <v>0.9243440000000001</v>
       </c>
       <c r="O5">
-        <v>0.009388397626859205</v>
+        <v>0.01074265932303386</v>
       </c>
       <c r="P5">
-        <v>0.009388397626859205</v>
+        <v>0.01395118867963002</v>
       </c>
       <c r="Q5">
-        <v>19.84287154005166</v>
+        <v>33.556511995264</v>
       </c>
       <c r="R5">
-        <v>19.84287154005166</v>
+        <v>302.008607957376</v>
       </c>
       <c r="S5">
-        <v>0.002933863099120092</v>
+        <v>0.003946218602863072</v>
       </c>
       <c r="T5">
-        <v>0.002933863099120092</v>
+        <v>0.005124842801406143</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>81.4084002248793</v>
+        <v>108.909168</v>
       </c>
       <c r="H6">
-        <v>81.4084002248793</v>
+        <v>326.727504</v>
       </c>
       <c r="I6">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="J6">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.93339102819297</v>
+        <v>3.954666333333333</v>
       </c>
       <c r="N6">
-        <v>2.93339102819297</v>
+        <v>11.863999</v>
       </c>
       <c r="O6">
-        <v>0.1129863902847491</v>
+        <v>0.1378825409867045</v>
       </c>
       <c r="P6">
-        <v>0.1129863902847491</v>
+        <v>0.1790641671757937</v>
       </c>
       <c r="Q6">
-        <v>238.8026708392035</v>
+        <v>430.699420080944</v>
       </c>
       <c r="R6">
-        <v>238.8026708392035</v>
+        <v>3876.294780728496</v>
       </c>
       <c r="S6">
-        <v>0.03530811266566496</v>
+        <v>0.05064990258837497</v>
       </c>
       <c r="T6">
-        <v>0.03530811266566496</v>
+        <v>0.06577759997472768</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>81.4084002248793</v>
+        <v>108.909168</v>
       </c>
       <c r="H7">
-        <v>81.4084002248793</v>
+        <v>326.727504</v>
       </c>
       <c r="I7">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="J7">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.5837035368732</v>
+        <v>18.436643</v>
       </c>
       <c r="N7">
-        <v>17.5837035368732</v>
+        <v>36.873286</v>
       </c>
       <c r="O7">
-        <v>0.6772773119485335</v>
+        <v>0.642808007006256</v>
       </c>
       <c r="P7">
-        <v>0.6772773119485335</v>
+        <v>0.5565310860718087</v>
       </c>
       <c r="Q7">
-        <v>1431.461174965399</v>
+        <v>2007.919449843024</v>
       </c>
       <c r="R7">
-        <v>1431.461174965399</v>
+        <v>12047.51669905814</v>
       </c>
       <c r="S7">
-        <v>0.2116483549559451</v>
+        <v>0.2361296992708728</v>
       </c>
       <c r="T7">
-        <v>0.2116483549559451</v>
+        <v>0.2044366538012795</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>179.099471361523</v>
+        <v>186.3809663333333</v>
       </c>
       <c r="H8">
-        <v>179.099471361523</v>
+        <v>559.1428989999999</v>
       </c>
       <c r="I8">
-        <v>0.6875011886238582</v>
+        <v>0.6286464319957765</v>
       </c>
       <c r="J8">
-        <v>0.6875011886238582</v>
+        <v>0.6286464319957766</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.16528824799189</v>
+        <v>1.352028</v>
       </c>
       <c r="N8">
-        <v>1.16528824799189</v>
+        <v>2.704056</v>
       </c>
       <c r="O8">
-        <v>0.04488379200605574</v>
+        <v>0.04713951580538031</v>
       </c>
       <c r="P8">
-        <v>0.04488379200605574</v>
+        <v>0.04081250644379757</v>
       </c>
       <c r="Q8">
-        <v>208.7025091991428</v>
+        <v>251.992285149724</v>
       </c>
       <c r="R8">
-        <v>208.7025091991428</v>
+        <v>1511.953710898344</v>
       </c>
       <c r="S8">
-        <v>0.03085766035410934</v>
+        <v>0.02963408841706085</v>
       </c>
       <c r="T8">
-        <v>0.03085766035410934</v>
+        <v>0.02565663655669798</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>179.099471361523</v>
+        <v>186.3809663333333</v>
       </c>
       <c r="H9">
-        <v>179.099471361523</v>
+        <v>559.1428989999999</v>
       </c>
       <c r="I9">
-        <v>0.6875011886238582</v>
+        <v>0.6286464319957765</v>
       </c>
       <c r="J9">
-        <v>0.6875011886238582</v>
+        <v>0.6286464319957766</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.40698891189478</v>
+        <v>3.780960333333333</v>
       </c>
       <c r="N9">
-        <v>3.40698891189478</v>
+        <v>11.342881</v>
       </c>
       <c r="O9">
-        <v>0.1312281162638892</v>
+        <v>0.1318261451631791</v>
       </c>
       <c r="P9">
-        <v>0.1312281162638892</v>
+        <v>0.1711988967328077</v>
       </c>
       <c r="Q9">
-        <v>610.1899130549256</v>
+        <v>704.6990405946686</v>
       </c>
       <c r="R9">
-        <v>610.1899130549256</v>
+        <v>6342.291365352018</v>
       </c>
       <c r="S9">
-        <v>0.09021948591229366</v>
+        <v>0.08287203580058981</v>
       </c>
       <c r="T9">
-        <v>0.09021948591229366</v>
+        <v>0.107623575592693</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>179.099471361523</v>
+        <v>186.3809663333333</v>
       </c>
       <c r="H10">
-        <v>179.099471361523</v>
+        <v>559.1428989999999</v>
       </c>
       <c r="I10">
-        <v>0.6875011886238582</v>
+        <v>0.6286464319957765</v>
       </c>
       <c r="J10">
-        <v>0.6875011886238582</v>
+        <v>0.6286464319957766</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.629223050062849</v>
+        <v>0.8490023333333334</v>
       </c>
       <c r="N10">
-        <v>0.629223050062849</v>
+        <v>2.547007</v>
       </c>
       <c r="O10">
-        <v>0.02423599186991325</v>
+        <v>0.0296011317154463</v>
       </c>
       <c r="P10">
-        <v>0.02423599186991325</v>
+        <v>0.03844215489616248</v>
       </c>
       <c r="Q10">
-        <v>112.6935156347414</v>
+        <v>158.2378753059214</v>
       </c>
       <c r="R10">
-        <v>112.6935156347414</v>
+        <v>1424.140877753293</v>
       </c>
       <c r="S10">
-        <v>0.01666227321804353</v>
+        <v>0.01860864583595234</v>
       </c>
       <c r="T10">
-        <v>0.01666227321804353</v>
+        <v>0.02416652351370152</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>179.099471361523</v>
+        <v>186.3809663333333</v>
       </c>
       <c r="H11">
-        <v>179.099471361523</v>
+        <v>559.1428989999999</v>
       </c>
       <c r="I11">
-        <v>0.6875011886238582</v>
+        <v>0.6286464319957765</v>
       </c>
       <c r="J11">
-        <v>0.6875011886238582</v>
+        <v>0.6286464319957766</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.243744766943442</v>
+        <v>0.3081146666666667</v>
       </c>
       <c r="N11">
-        <v>0.243744766943442</v>
+        <v>0.9243440000000001</v>
       </c>
       <c r="O11">
-        <v>0.009388397626859205</v>
+        <v>0.01074265932303386</v>
       </c>
       <c r="P11">
-        <v>0.009388397626859205</v>
+        <v>0.01395118867963002</v>
       </c>
       <c r="Q11">
-        <v>43.65455890670809</v>
+        <v>57.42670931480622</v>
       </c>
       <c r="R11">
-        <v>43.65455890670809</v>
+        <v>516.8403838332559</v>
       </c>
       <c r="S11">
-        <v>0.006454534527739113</v>
+        <v>0.006753334453571399</v>
       </c>
       <c r="T11">
-        <v>0.006454534527739113</v>
+        <v>0.008770364985549279</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>179.099471361523</v>
+        <v>186.3809663333333</v>
       </c>
       <c r="H12">
-        <v>179.099471361523</v>
+        <v>559.1428989999999</v>
       </c>
       <c r="I12">
-        <v>0.6875011886238582</v>
+        <v>0.6286464319957765</v>
       </c>
       <c r="J12">
-        <v>0.6875011886238582</v>
+        <v>0.6286464319957766</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.93339102819297</v>
+        <v>3.954666333333333</v>
       </c>
       <c r="N12">
-        <v>2.93339102819297</v>
+        <v>11.863999</v>
       </c>
       <c r="O12">
-        <v>0.1129863902847491</v>
+        <v>0.1378825409867045</v>
       </c>
       <c r="P12">
-        <v>0.1129863902847491</v>
+        <v>0.1790641671757937</v>
       </c>
       <c r="Q12">
-        <v>525.3687824459953</v>
+        <v>737.0745327325667</v>
       </c>
       <c r="R12">
-        <v>525.3687824459953</v>
+        <v>6633.6707945931</v>
       </c>
       <c r="S12">
-        <v>0.07767827761908419</v>
+        <v>0.08667936742580318</v>
       </c>
       <c r="T12">
-        <v>0.07767827761908419</v>
+        <v>0.1125680497933579</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>179.099471361523</v>
+        <v>186.3809663333333</v>
       </c>
       <c r="H13">
-        <v>179.099471361523</v>
+        <v>559.1428989999999</v>
       </c>
       <c r="I13">
-        <v>0.6875011886238582</v>
+        <v>0.6286464319957765</v>
       </c>
       <c r="J13">
-        <v>0.6875011886238582</v>
+        <v>0.6286464319957766</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.5837035368732</v>
+        <v>18.436643</v>
       </c>
       <c r="N13">
-        <v>17.5837035368732</v>
+        <v>36.873286</v>
       </c>
       <c r="O13">
-        <v>0.6772773119485335</v>
+        <v>0.642808007006256</v>
       </c>
       <c r="P13">
-        <v>0.6772773119485335</v>
+        <v>0.5565310860718087</v>
       </c>
       <c r="Q13">
-        <v>3149.232008031733</v>
+        <v>3436.239338282685</v>
       </c>
       <c r="R13">
-        <v>3149.232008031733</v>
+        <v>20617.43602969611</v>
       </c>
       <c r="S13">
-        <v>0.4656289569925884</v>
+        <v>0.4040989600627989</v>
       </c>
       <c r="T13">
-        <v>0.4656289569925884</v>
+        <v>0.349861281553777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.189662333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.568987</v>
+      </c>
+      <c r="I14">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="J14">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.352028</v>
+      </c>
+      <c r="N14">
+        <v>2.704056</v>
+      </c>
+      <c r="O14">
+        <v>0.04713951580538031</v>
+      </c>
+      <c r="P14">
+        <v>0.04081250644379757</v>
+      </c>
+      <c r="Q14">
+        <v>1.608456785212</v>
+      </c>
+      <c r="R14">
+        <v>9.650740711272</v>
+      </c>
+      <c r="S14">
+        <v>0.0001891532137964981</v>
+      </c>
+      <c r="T14">
+        <v>0.0001637652959526897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.189662333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.568987</v>
+      </c>
+      <c r="I15">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="J15">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.780960333333333</v>
+      </c>
+      <c r="N15">
+        <v>11.342881</v>
+      </c>
+      <c r="O15">
+        <v>0.1318261451631791</v>
+      </c>
+      <c r="P15">
+        <v>0.1711988967328077</v>
+      </c>
+      <c r="Q15">
+        <v>4.498066092394112</v>
+      </c>
+      <c r="R15">
+        <v>40.482594831547</v>
+      </c>
+      <c r="S15">
+        <v>0.000528968925412106</v>
+      </c>
+      <c r="T15">
+        <v>0.0006869570245294996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.189662333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.568987</v>
+      </c>
+      <c r="I16">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="J16">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.8490023333333334</v>
+      </c>
+      <c r="N16">
+        <v>2.547007</v>
+      </c>
+      <c r="O16">
+        <v>0.0296011317154463</v>
+      </c>
+      <c r="P16">
+        <v>0.03844215489616248</v>
+      </c>
+      <c r="Q16">
+        <v>1.010026096878778</v>
+      </c>
+      <c r="R16">
+        <v>9.090234871909002</v>
+      </c>
+      <c r="S16">
+        <v>0.0001187782500589676</v>
+      </c>
+      <c r="T16">
+        <v>0.0001542539633604379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.189662333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.568987</v>
+      </c>
+      <c r="I17">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="J17">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3081146666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.9243440000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.01074265932303386</v>
+      </c>
+      <c r="P17">
+        <v>0.01395118867963002</v>
+      </c>
+      <c r="Q17">
+        <v>0.3665524132808889</v>
+      </c>
+      <c r="R17">
+        <v>3.298971719528001</v>
+      </c>
+      <c r="S17">
+        <v>4.310626659938756E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.598089267459438E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.189662333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.568987</v>
+      </c>
+      <c r="I18">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="J18">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.954666333333333</v>
+      </c>
+      <c r="N18">
+        <v>11.863999</v>
+      </c>
+      <c r="O18">
+        <v>0.1378825409867045</v>
+      </c>
+      <c r="P18">
+        <v>0.1790641671757937</v>
+      </c>
+      <c r="Q18">
+        <v>4.704717577668111</v>
+      </c>
+      <c r="R18">
+        <v>42.342458199013</v>
+      </c>
+      <c r="S18">
+        <v>0.0005532709725263185</v>
+      </c>
+      <c r="T18">
+        <v>0.0007185174077080557</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.189662333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.568987</v>
+      </c>
+      <c r="I19">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="J19">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>18.436643</v>
+      </c>
+      <c r="N19">
+        <v>36.873286</v>
+      </c>
+      <c r="O19">
+        <v>0.642808007006256</v>
+      </c>
+      <c r="P19">
+        <v>0.5565310860718087</v>
+      </c>
+      <c r="Q19">
+        <v>21.93337973021367</v>
+      </c>
+      <c r="R19">
+        <v>131.600278381282</v>
+      </c>
+      <c r="S19">
+        <v>0.002579347672584229</v>
+      </c>
+      <c r="T19">
+        <v>0.00223315071675223</v>
       </c>
     </row>
   </sheetData>
